--- a/Dataset/voucher.xlsx
+++ b/Dataset/voucher.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,7 +485,7 @@
         <v>0.15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
@@ -541,7 +541,7 @@
         <v>0.05</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3">
         <v>19</v>
